--- a/Updated_From_DEV_Clean_1.xlsx
+++ b/Updated_From_DEV_Clean_1.xlsx
@@ -13771,18 +13771,18 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://www.cbc.ca/missingandmurdered/mmiw/profiles/jane-louise-sutherland</t>
-        </is>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
         <v>45.44018772243732</v>
       </c>
       <c r="K136" t="n">
         <v>-75.7080990472126</v>
       </c>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>https://www.cbc.ca/missingandmurdered/mmiw/profiles/jane-louise-sutherland</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1984</v>
       </c>
